--- a/output/tables/bitab1.xlsx
+++ b/output/tables/bitab1.xlsx
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Social class</t>
-  </si>
-  <si>
-    <t>Low class</t>
   </si>
   <si>
     <t>Middle-low class</t>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Dependent variable</t>
+  </si>
+  <si>
+    <t>Lower class</t>
   </si>
 </sst>
 </file>
@@ -217,6 +217,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -226,25 +235,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,26 +566,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2">
         <v>2016</v>
       </c>
@@ -606,11 +606,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>4.28</v>
@@ -618,7 +618,7 @@
       <c r="D3" s="3">
         <v>4.32</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="7">
         <v>4.3</v>
       </c>
       <c r="F3" s="3">
@@ -632,9 +632,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3">
         <v>4.2300000000000004</v>
@@ -648,7 +648,7 @@
       <c r="F4" s="3">
         <v>0.67</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="7">
         <v>0.8</v>
       </c>
       <c r="H4" s="3">
@@ -656,9 +656,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>4.24</v>
@@ -680,9 +680,9 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>4.09</v>
@@ -704,9 +704,9 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
         <v>4.05</v>
@@ -728,11 +728,11 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
+      <c r="A8" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3">
         <v>2.36</v>
@@ -743,7 +743,7 @@
       <c r="E8" s="3">
         <v>2.44</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7">
         <v>1.2</v>
       </c>
       <c r="G8" s="3">
@@ -754,9 +754,9 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>2.48</v>
@@ -778,9 +778,9 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>2.64</v>
@@ -802,9 +802,9 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>2.89</v>
@@ -826,9 +826,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4">
         <v>3.22</v>
@@ -850,11 +850,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>17</v>
+      <c r="A13" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C13" s="3">
         <v>1.26</v>
@@ -876,9 +876,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3">
         <v>1.25</v>
@@ -900,9 +900,9 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>1.25</v>
@@ -924,9 +924,9 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="3">
         <v>1.35</v>
@@ -948,9 +948,9 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <v>1.56</v>
@@ -972,11 +972,11 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>18</v>
+      <c r="A18" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3">
         <v>2.52</v>
@@ -998,9 +998,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="3">
         <v>2.63</v>
@@ -1022,9 +1022,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3">
         <v>2.77</v>
@@ -1046,9 +1046,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="3">
         <v>3.14</v>
@@ -1070,11 +1070,11 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8">
         <v>3.4</v>
       </c>
       <c r="D22" s="4">
@@ -1094,25 +1094,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
+      <c r="A23" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <v>1.73</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="7">
         <v>1.5</v>
       </c>
       <c r="E23" s="3">
         <v>1.88</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="7">
         <v>0.7</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="7">
         <v>0.6</v>
       </c>
       <c r="H23" s="3">
@@ -1120,9 +1120,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="3">
         <v>1.66</v>
@@ -1144,9 +1144,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3">
         <v>1.63</v>
@@ -1168,17 +1168,17 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3">
         <v>1.72</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="7">
         <v>1.6</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
       <c r="F26" s="3">
@@ -1192,9 +1192,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="4">
         <v>1.95</v>
@@ -1216,11 +1216,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>20</v>
+      <c r="A28" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>1.56</v>
@@ -1237,14 +1237,14 @@
       <c r="G28" s="3">
         <v>1.08</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="3">
         <v>1.58</v>
@@ -1266,9 +1266,9 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3">
         <v>1.64</v>
@@ -1290,9 +1290,9 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3">
         <v>2.0499999999999998</v>
@@ -1314,9 +1314,9 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4">
         <v>2.5299999999999998</v>
@@ -1330,19 +1330,19 @@
       <c r="F32" s="4">
         <v>1.34</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="8">
         <v>1.3</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="8">
         <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>21</v>
+      <c r="A33" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C33" s="3">
         <v>2.11</v>
@@ -1364,9 +1364,9 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34" s="3">
         <v>2.06</v>
@@ -1388,9 +1388,9 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3">
         <v>1.89</v>
@@ -1412,9 +1412,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>1.97</v>
@@ -1428,7 +1428,7 @@
       <c r="F36" s="3">
         <v>1.02</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="7">
         <v>0.9</v>
       </c>
       <c r="H36" s="3">
@@ -1436,9 +1436,9 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" s="4">
         <v>2.0699999999999998</v>
@@ -1449,7 +1449,7 @@
       <c r="E37" s="4">
         <v>2.5299999999999998</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="G37" s="4">
@@ -1460,16 +1460,16 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>22</v>
+      <c r="A38" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3">
         <v>1.21</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="7">
         <v>1.2</v>
       </c>
       <c r="E38" s="3">
@@ -1486,9 +1486,9 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39" s="3">
         <v>1.23</v>
@@ -1496,7 +1496,7 @@
       <c r="D39" s="3">
         <v>1.18</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="7">
         <v>1.2</v>
       </c>
       <c r="F39" s="3">
@@ -1510,11 +1510,11 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="12">
+        <v>12</v>
+      </c>
+      <c r="C40" s="7">
         <v>1.2</v>
       </c>
       <c r="D40" s="3">
@@ -1526,17 +1526,17 @@
       <c r="F40" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="7">
         <v>0.3</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C41" s="3">
         <v>1.22</v>
@@ -1558,9 +1558,9 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42" s="4">
         <v>1.31</v>
@@ -1568,7 +1568,7 @@
       <c r="D42" s="4">
         <v>1.35</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="8">
         <v>1.3</v>
       </c>
       <c r="F42" s="4">
@@ -1582,11 +1582,11 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>23</v>
+      <c r="A43" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C43" s="3">
         <v>1.23</v>
@@ -1608,9 +1608,9 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="3">
         <v>1.31</v>
@@ -1627,14 +1627,14 @@
       <c r="G44" s="3">
         <v>0.52</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="7">
         <v>0.3</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3">
         <v>1.37</v>
@@ -1656,9 +1656,9 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="5">
         <v>1.63</v>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="4">
         <v>1.82</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="8">
         <v>2</v>
       </c>
       <c r="E47" s="4">
@@ -1704,11 +1704,11 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>24</v>
+      <c r="A48" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C48" s="3">
         <v>4.04</v>
@@ -1730,9 +1730,9 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49" s="3">
         <v>4.17</v>
@@ -1754,9 +1754,9 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3">
         <v>4.16</v>
@@ -1778,9 +1778,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="3">
         <v>3.98</v>
@@ -1794,7 +1794,7 @@
       <c r="F51" s="3">
         <v>0.74</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="7">
         <v>0.7</v>
       </c>
       <c r="H51" s="3">
@@ -1802,9 +1802,9 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="9"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" s="4">
         <v>3.83</v>
@@ -1818,7 +1818,7 @@
       <c r="F52" s="4">
         <v>0.83</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="8">
         <v>0.7</v>
       </c>
       <c r="H52" s="4">
@@ -1826,11 +1826,11 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>25</v>
+      <c r="A53" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C53" s="3">
         <v>4.01</v>
@@ -1852,9 +1852,9 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54" s="3">
         <v>4.0599999999999996</v>
@@ -1876,20 +1876,20 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3">
         <v>4.07</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="7">
         <v>4.3</v>
       </c>
       <c r="E55" s="3">
         <v>4.24</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="7">
         <v>0.6</v>
       </c>
       <c r="G55" s="3">
@@ -1900,9 +1900,9 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" s="3">
         <v>4.0199999999999996</v>
@@ -1924,9 +1924,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="9"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" s="4">
         <v>4.09</v>
@@ -1948,11 +1948,11 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>26</v>
+      <c r="A58" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C58" s="3">
         <v>1.69</v>
@@ -1974,9 +1974,9 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="3">
         <v>1.73</v>
@@ -1987,20 +1987,20 @@
       <c r="E59" s="3">
         <v>1.58</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="7">
         <v>0.6</v>
       </c>
       <c r="G59" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="7">
         <v>0.6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3">
         <v>1.75</v>
@@ -2022,9 +2022,9 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="3">
         <v>1.76</v>
@@ -2046,9 +2046,9 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="4">
         <v>1.93</v>
@@ -2070,16 +2070,16 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>27</v>
+      <c r="A63" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C63" s="3">
         <v>2.37</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="7">
         <v>2.4</v>
       </c>
       <c r="E63" s="3">
@@ -2096,11 +2096,11 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="3">
+        <v>11</v>
+      </c>
+      <c r="C64" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="D64" s="3">
@@ -2120,9 +2120,9 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3">
         <v>2.27</v>
@@ -2144,11 +2144,11 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="3">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7">
         <v>2.4</v>
       </c>
       <c r="D66" s="3">
@@ -2168,9 +2168,9 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="4">
         <v>2.63</v>
@@ -2192,11 +2192,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>28</v>
+      <c r="A68" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C68" s="3">
         <v>3.86</v>
@@ -2218,11 +2218,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" s="12">
+        <v>11</v>
+      </c>
+      <c r="C69" s="7">
         <v>3.8</v>
       </c>
       <c r="D69" s="3">
@@ -2242,9 +2242,9 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3">
         <v>3.84</v>
@@ -2266,9 +2266,9 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="3">
         <v>3.76</v>
@@ -2290,9 +2290,9 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72" s="6">
         <v>3.98</v>
@@ -2303,7 +2303,7 @@
       <c r="E72" s="6">
         <v>4.05</v>
       </c>
-      <c r="F72" s="14">
+      <c r="F72" s="9">
         <v>0.9</v>
       </c>
       <c r="G72" s="6">
@@ -2315,14 +2315,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A53:A57"/>
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="A63:A67"/>
@@ -2333,6 +2325,14 @@
     <mergeCell ref="A38:A42"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I71" sqref="A1:I71"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>4.28</v>
@@ -2422,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>4.2300000000000004</v>
@@ -2451,7 +2451,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>4.24</v>
@@ -2480,7 +2480,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>4.09</v>
@@ -2509,7 +2509,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>4.05</v>
@@ -2532,13 +2532,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>2.36</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>2.48</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>2.64</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>2.89</v>
@@ -2648,13 +2648,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>3.22</v>
@@ -2677,13 +2677,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D12">
         <v>1.26</v>
@@ -2706,13 +2706,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1.25</v>
@@ -2735,13 +2735,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1.25</v>
@@ -2764,13 +2764,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1.35</v>
@@ -2793,13 +2793,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1.56</v>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>2.52</v>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18">
         <v>2.63</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19">
         <v>2.77</v>
@@ -2909,13 +2909,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>3.14</v>
@@ -2938,13 +2938,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>3.4</v>
@@ -2967,13 +2967,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>1.73</v>
@@ -2996,13 +2996,13 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D23">
         <v>1.66</v>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>1.63</v>
@@ -3054,13 +3054,13 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25">
         <v>1.72</v>
@@ -3083,13 +3083,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <v>1.95</v>
@@ -3112,13 +3112,13 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1.56</v>
@@ -3141,13 +3141,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28">
         <v>1.58</v>
@@ -3170,13 +3170,13 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>1.64</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>2.0499999999999998</v>
@@ -3228,13 +3228,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>2.5299999999999998</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>2.11</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33">
         <v>2.06</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>1.89</v>
@@ -3344,13 +3344,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35">
         <v>1.97</v>
@@ -3373,13 +3373,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>2.0699999999999998</v>
@@ -3402,13 +3402,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>1.21</v>
@@ -3431,13 +3431,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>1.23</v>
@@ -3460,13 +3460,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>1.2</v>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40">
         <v>1.22</v>
@@ -3518,13 +3518,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>1.31</v>
@@ -3547,13 +3547,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>1.23</v>
@@ -3576,13 +3576,13 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D43">
         <v>1.31</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>1.37</v>
@@ -3634,13 +3634,13 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45">
         <v>1.63</v>
@@ -3663,13 +3663,13 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>1.82</v>
@@ -3692,13 +3692,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D47">
         <v>4.04</v>
@@ -3721,13 +3721,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D48">
         <v>4.17</v>
@@ -3750,13 +3750,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D49">
         <v>4.16</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50">
         <v>3.98</v>
@@ -3808,13 +3808,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>3.83</v>
@@ -3837,13 +3837,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D52">
         <v>4.01</v>
@@ -3866,13 +3866,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53">
         <v>4.0599999999999996</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D54">
         <v>4.07</v>
@@ -3924,13 +3924,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55">
         <v>4.0199999999999996</v>
@@ -3953,13 +3953,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>4.09</v>
@@ -3982,13 +3982,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D57">
         <v>1.69</v>
@@ -4011,13 +4011,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
         <v>1.73</v>
@@ -4040,13 +4040,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59">
         <v>1.75</v>
@@ -4069,13 +4069,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>1.76</v>
@@ -4098,13 +4098,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D61">
         <v>1.93</v>
@@ -4127,13 +4127,13 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D62">
         <v>2.37</v>
@@ -4156,13 +4156,13 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>2.2999999999999998</v>
@@ -4185,13 +4185,13 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
         <v>2.27</v>
@@ -4214,13 +4214,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>2.4</v>
@@ -4243,13 +4243,13 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D66">
         <v>2.63</v>
@@ -4272,13 +4272,13 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D67">
         <v>3.86</v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D68">
         <v>3.8</v>
@@ -4330,13 +4330,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D69">
         <v>3.84</v>
@@ -4359,13 +4359,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>3.76</v>
@@ -4388,13 +4388,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D71">
         <v>3.98</v>
